--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C104"/>
+  <dimension ref="A1:C344"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E4255"/>
@@ -1925,6 +1925,3426 @@
       </c>
       <c r="C104" t="n">
         <v>1.032</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C105" t="n">
+        <v>0.303</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C106" t="n">
+        <v>1.051</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C107" t="n">
+        <v>1.116</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C108" t="n">
+        <v>7.806</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C109" t="n">
+        <v>1.183</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C110" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C111" t="n">
+        <v>1.122</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C112" t="n">
+        <v>1.293</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C113" t="n">
+        <v>4.636</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C114" t="n">
+        <v>1.989</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C115" t="n">
+        <v>1.497</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C116" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C117" t="n">
+        <v>0.369</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C118" t="n">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C119" t="n">
+        <v>3.048</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C120" t="n">
+        <v>7.664</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C121" t="n">
+        <v>1.362</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C122" t="n">
+        <v>1.228</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C123" t="n">
+        <v>1.298</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C124" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C125" t="n">
+        <v>4.189</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C126" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:56 (Kyiv+Israel) 01:56 (UTC) 10:56 (Japan) 07:26 (India)</t>
+        </is>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C127" t="n">
+        <v>0.948</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:56 (Kyiv+Israel) 01:56 (UTC) 10:56 (Japan) 07:26 (India)</t>
+        </is>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C128" t="n">
+        <v>1.092</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C129" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="130">
+      <c r="A130" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B130" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C130" t="n">
+        <v>1.44</v>
+      </c>
+    </row>
+    <row r="131">
+      <c r="A131" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B131" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C131" t="n">
+        <v>0.9350000000000001</v>
+      </c>
+    </row>
+    <row r="132">
+      <c r="A132" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B132" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C132" t="n">
+        <v>6.766</v>
+      </c>
+    </row>
+    <row r="133">
+      <c r="A133" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B133" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C133" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
+    <row r="134">
+      <c r="A134" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B134" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C134" t="n">
+        <v>1.163</v>
+      </c>
+    </row>
+    <row r="135">
+      <c r="A135" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B135" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C135" t="n">
+        <v>1.183</v>
+      </c>
+    </row>
+    <row r="136">
+      <c r="A136" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B136" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C136" t="n">
+        <v>1.031</v>
+      </c>
+    </row>
+    <row r="137">
+      <c r="A137" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B137" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C137" t="n">
+        <v>4.552</v>
+      </c>
+    </row>
+    <row r="138">
+      <c r="A138" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B138" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C138" t="n">
+        <v>0.769</v>
+      </c>
+    </row>
+    <row r="139">
+      <c r="A139" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B139" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C139" t="n">
+        <v>1.405</v>
+      </c>
+    </row>
+    <row r="140">
+      <c r="A140" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B140" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C140" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+    </row>
+    <row r="141">
+      <c r="A141" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B141" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C141" t="n">
+        <v>0.313</v>
+      </c>
+    </row>
+    <row r="142">
+      <c r="A142" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B142" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C142" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="143">
+      <c r="A143" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B143" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C143" t="n">
+        <v>2.421</v>
+      </c>
+    </row>
+    <row r="144">
+      <c r="A144" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B144" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C144" t="n">
+        <v>6.789</v>
+      </c>
+    </row>
+    <row r="145">
+      <c r="A145" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B145" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C145" t="n">
+        <v>1.242</v>
+      </c>
+    </row>
+    <row r="146">
+      <c r="A146" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B146" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C146" t="n">
+        <v>1.261</v>
+      </c>
+    </row>
+    <row r="147">
+      <c r="A147" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B147" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C147" t="n">
+        <v>1.169</v>
+      </c>
+    </row>
+    <row r="148">
+      <c r="A148" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B148" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C148" t="n">
+        <v>1.151</v>
+      </c>
+    </row>
+    <row r="149">
+      <c r="A149" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B149" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C149" t="n">
+        <v>4.25</v>
+      </c>
+    </row>
+    <row r="150">
+      <c r="A150" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B150" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C150" t="n">
+        <v>1.121</v>
+      </c>
+    </row>
+    <row r="151">
+      <c r="A151" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B151" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C151" t="n">
+        <v>1.419</v>
+      </c>
+    </row>
+    <row r="152">
+      <c r="A152" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B152" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C152" t="n">
+        <v>1.148</v>
+      </c>
+    </row>
+    <row r="153">
+      <c r="A153" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B153" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C153" t="n">
+        <v>0.251</v>
+      </c>
+    </row>
+    <row r="154">
+      <c r="A154" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B154" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C154" t="n">
+        <v>1.152</v>
+      </c>
+    </row>
+    <row r="155">
+      <c r="A155" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B155" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C155" t="n">
+        <v>1.022</v>
+      </c>
+    </row>
+    <row r="156">
+      <c r="A156" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B156" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C156" t="n">
+        <v>6.884</v>
+      </c>
+    </row>
+    <row r="157">
+      <c r="A157" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B157" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C157" t="n">
+        <v>2.139</v>
+      </c>
+    </row>
+    <row r="158">
+      <c r="A158" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B158" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C158" t="n">
+        <v>1.539</v>
+      </c>
+    </row>
+    <row r="159">
+      <c r="A159" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B159" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C159" t="n">
+        <v>1.12</v>
+      </c>
+    </row>
+    <row r="160">
+      <c r="A160" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B160" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C160" t="n">
+        <v>1.133</v>
+      </c>
+    </row>
+    <row r="161">
+      <c r="A161" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B161" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C161" t="n">
+        <v>4.478</v>
+      </c>
+    </row>
+    <row r="162">
+      <c r="A162" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B162" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C162" t="n">
+        <v>0.783</v>
+      </c>
+    </row>
+    <row r="163">
+      <c r="A163" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B163" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C163" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="164">
+      <c r="A164" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B164" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C164" t="n">
+        <v>0.76</v>
+      </c>
+    </row>
+    <row r="165">
+      <c r="A165" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B165" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C165" t="n">
+        <v>0.265</v>
+      </c>
+    </row>
+    <row r="166">
+      <c r="A166" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B166" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C166" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="167">
+      <c r="A167" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B167" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C167" t="n">
+        <v>3.116</v>
+      </c>
+    </row>
+    <row r="168">
+      <c r="A168" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B168" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C168" t="n">
+        <v>6.799</v>
+      </c>
+    </row>
+    <row r="169">
+      <c r="A169" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B169" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C169" t="n">
+        <v>1.288</v>
+      </c>
+    </row>
+    <row r="170">
+      <c r="A170" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B170" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C170" t="n">
+        <v>1.311</v>
+      </c>
+    </row>
+    <row r="171">
+      <c r="A171" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B171" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C171" t="n">
+        <v>1.615</v>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B172" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C172" t="n">
+        <v>1.101</v>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B173" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C173" t="n">
+        <v>4.184</v>
+      </c>
+    </row>
+    <row r="174">
+      <c r="A174" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B174" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C174" t="n">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="175">
+      <c r="A175" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B175" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C175" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="176">
+      <c r="A176" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B176" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C176" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="177">
+      <c r="A177" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B177" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C177" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="178">
+      <c r="A178" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B178" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C178" t="n">
+        <v>1.18</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B179" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C179" t="n">
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B180" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C180" t="n">
+        <v>7.226</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B181" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C181" t="n">
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B182" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C182" t="n">
+        <v>1.401</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B183" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C183" t="n">
+        <v>1.234</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B184" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C184" t="n">
+        <v>1.386</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B185" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C185" t="n">
+        <v>4.304</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B186" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C186" t="n">
+        <v>1.123</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B187" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C187" t="n">
+        <v>0.998</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B188" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C188" t="n">
+        <v>0.9379999999999999</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C189" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C190" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C191" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C192" t="n">
+        <v>7.001</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C193" t="n">
+        <v>1.283</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C194" t="n">
+        <v>1.09</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C195" t="n">
+        <v>1.198</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C196" t="n">
+        <v>1.072</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C197" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C198" t="n">
+        <v>0.82</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C199" t="n">
+        <v>0.967</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C200" t="n">
+        <v>0.778</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C201" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C202" t="n">
+        <v>1.492</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C203" t="n">
+        <v>1.431</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C204" t="n">
+        <v>6.763</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C205" t="n">
+        <v>1.442</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B206" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C206" t="n">
+        <v>1.638</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B207" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C207" t="n">
+        <v>1.676</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B208" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C208" t="n">
+        <v>1.071</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B209" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C209" t="n">
+        <v>4.386</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B210" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C210" t="n">
+        <v>0.756</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B211" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C211" t="n">
+        <v>0.877</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B212" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C212" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:49 (Kyiv+Israel) 12:49 (UTC) 21:49 (Japan) 18:19 (India)</t>
+        </is>
+      </c>
+      <c r="B214" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C214" t="n">
+        <v>0.5570000000000001</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:49 (Kyiv+Israel) 12:49 (UTC) 21:49 (Japan) 18:19 (India)</t>
+        </is>
+      </c>
+      <c r="B216" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C216" t="n">
+        <v>1.144</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:49 (Kyiv+Israel) 12:49 (UTC) 21:49 (Japan) 18:19 (India)</t>
+        </is>
+      </c>
+      <c r="B218" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C218" t="n">
+        <v>3.022</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B220" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C220" t="n">
+        <v>7.122</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B222" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C222" t="n">
+        <v>1.703</v>
+      </c>
+    </row>
+    <row r="224">
+      <c r="A224" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B224" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C224" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="226">
+      <c r="A226" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B226" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C226" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="228">
+      <c r="A228" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B228" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C228" t="n">
+        <v>1.037</v>
+      </c>
+    </row>
+    <row r="230">
+      <c r="A230" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B230" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C230" t="n">
+        <v>4.343</v>
+      </c>
+    </row>
+    <row r="232">
+      <c r="A232" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B232" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C232" t="n">
+        <v>0.851</v>
+      </c>
+    </row>
+    <row r="234">
+      <c r="A234" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B234" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C234" t="n">
+        <v>1.066</v>
+      </c>
+    </row>
+    <row r="236">
+      <c r="A236" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B236" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C236" t="n">
+        <v>1.219</v>
+      </c>
+    </row>
+    <row r="237">
+      <c r="A237" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B237" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C237" t="n">
+        <v>0.429</v>
+      </c>
+    </row>
+    <row r="238">
+      <c r="A238" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B238" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C238" t="n">
+        <v>2.012</v>
+      </c>
+    </row>
+    <row r="239">
+      <c r="A239" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B239" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C239" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="240">
+      <c r="A240" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B240" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C240" t="n">
+        <v>6.741</v>
+      </c>
+    </row>
+    <row r="241">
+      <c r="A241" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B241" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C241" t="n">
+        <v>2.609</v>
+      </c>
+    </row>
+    <row r="242">
+      <c r="A242" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B242" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C242" t="n">
+        <v>1.343</v>
+      </c>
+    </row>
+    <row r="243">
+      <c r="A243" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B243" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C243" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="244">
+      <c r="A244" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B244" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C244" t="n">
+        <v>1.418</v>
+      </c>
+    </row>
+    <row r="245">
+      <c r="A245" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B245" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C245" t="n">
+        <v>4.553</v>
+      </c>
+    </row>
+    <row r="246">
+      <c r="A246" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B246" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C246" t="n">
+        <v>2.418</v>
+      </c>
+    </row>
+    <row r="247">
+      <c r="A247" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B247" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C247" t="n">
+        <v>0.916</v>
+      </c>
+    </row>
+    <row r="248">
+      <c r="A248" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B248" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C248" t="n">
+        <v>1.146</v>
+      </c>
+    </row>
+    <row r="249">
+      <c r="A249" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B249" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C249" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="250">
+      <c r="A250" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B250" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C250" t="n">
+        <v>1.326</v>
+      </c>
+    </row>
+    <row r="251">
+      <c r="A251" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B251" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C251" t="n">
+        <v>3.106</v>
+      </c>
+    </row>
+    <row r="252">
+      <c r="A252" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B252" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C252" t="n">
+        <v>6.576</v>
+      </c>
+    </row>
+    <row r="253">
+      <c r="A253" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B253" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C253" t="n">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="254">
+      <c r="A254" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B254" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C254" t="n">
+        <v>1.108</v>
+      </c>
+    </row>
+    <row r="255">
+      <c r="A255" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B255" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C255" t="n">
+        <v>1.095</v>
+      </c>
+    </row>
+    <row r="256">
+      <c r="A256" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>1.139</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>4.19</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>0.788</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>1.068</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>0.953</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>7.279</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>1.812</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>1.088</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>1.046</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>4.149</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>1.313</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>1.187</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>2.47</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>6.551</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>1.811</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>1.171</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>1.259</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>1.157</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>4.215</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>1.004</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>1.804</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>0.468</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>2.032</v>
+      </c>
+    </row>
+    <row r="287">
+      <c r="A287" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B287" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C287" t="n">
+        <v>1.109</v>
+      </c>
+    </row>
+    <row r="288">
+      <c r="A288" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B288" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C288" t="n">
+        <v>6.941</v>
+      </c>
+    </row>
+    <row r="289">
+      <c r="A289" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B289" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C289" t="n">
+        <v>1.408</v>
+      </c>
+    </row>
+    <row r="290">
+      <c r="A290" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B290" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C290" t="n">
+        <v>1.393</v>
+      </c>
+    </row>
+    <row r="291">
+      <c r="A291" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B291" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C291" t="n">
+        <v>2.084</v>
+      </c>
+    </row>
+    <row r="292">
+      <c r="A292" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B292" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C292" t="n">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="293">
+      <c r="A293" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B293" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C293" t="n">
+        <v>4.321</v>
+      </c>
+    </row>
+    <row r="294">
+      <c r="A294" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B294" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C294" t="n">
+        <v>1.276</v>
+      </c>
+    </row>
+    <row r="295">
+      <c r="A295" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B295" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C295" t="n">
+        <v>1.06</v>
+      </c>
+    </row>
+    <row r="296">
+      <c r="A296" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B296" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C296" t="n">
+        <v>1.047</v>
+      </c>
+    </row>
+    <row r="297">
+      <c r="A297" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B297" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C297" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="298">
+      <c r="A298" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B298" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C298" t="n">
+        <v>2.214</v>
+      </c>
+    </row>
+    <row r="299">
+      <c r="A299" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B299" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C299" t="n">
+        <v>1.537</v>
+      </c>
+    </row>
+    <row r="300">
+      <c r="A300" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B300" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C300" t="n">
+        <v>13.099</v>
+      </c>
+    </row>
+    <row r="301">
+      <c r="A301" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B301" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C301" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="302">
+      <c r="A302" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B302" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C302" t="n">
+        <v>2.35</v>
+      </c>
+    </row>
+    <row r="303">
+      <c r="A303" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B303" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C303" t="n">
+        <v>1.154</v>
+      </c>
+    </row>
+    <row r="304">
+      <c r="A304" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B304" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C304" t="n">
+        <v>1.385</v>
+      </c>
+    </row>
+    <row r="305">
+      <c r="A305" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B305" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C305" t="n">
+        <v>4.232</v>
+      </c>
+    </row>
+    <row r="306">
+      <c r="A306" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B306" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C306" t="n">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="307">
+      <c r="A307" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B307" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C307" t="n">
+        <v>2.722</v>
+      </c>
+    </row>
+    <row r="308">
+      <c r="A308" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B308" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C308" t="n">
+        <v>0.8120000000000001</v>
+      </c>
+    </row>
+    <row r="309">
+      <c r="A309" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B309" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C309" t="n">
+        <v>0.308</v>
+      </c>
+    </row>
+    <row r="310">
+      <c r="A310" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B310" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C310" t="n">
+        <v>1.049</v>
+      </c>
+    </row>
+    <row r="311">
+      <c r="A311" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B311" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C311" t="n">
+        <v>0.982</v>
+      </c>
+    </row>
+    <row r="312">
+      <c r="A312" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B312" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C312" t="n">
+        <v>8.31</v>
+      </c>
+    </row>
+    <row r="313">
+      <c r="A313" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B313" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C313" t="n">
+        <v>1.303</v>
+      </c>
+    </row>
+    <row r="314">
+      <c r="A314" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B314" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C314" t="n">
+        <v>1.085</v>
+      </c>
+    </row>
+    <row r="315">
+      <c r="A315" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B315" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C315" t="n">
+        <v>1.156</v>
+      </c>
+    </row>
+    <row r="316">
+      <c r="A316" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B316" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C316" t="n">
+        <v>1.006</v>
+      </c>
+    </row>
+    <row r="317">
+      <c r="A317" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B317" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C317" t="n">
+        <v>4.3</v>
+      </c>
+    </row>
+    <row r="318">
+      <c r="A318" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B318" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C318" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="319">
+      <c r="A319" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B319" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C319" t="n">
+        <v>0.829</v>
+      </c>
+    </row>
+    <row r="320">
+      <c r="A320" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B320" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C320" t="n">
+        <v>0.802</v>
+      </c>
+    </row>
+    <row r="321">
+      <c r="A321" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B321" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C321" t="n">
+        <v>0.202</v>
+      </c>
+    </row>
+    <row r="322">
+      <c r="A322" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B322" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C322" t="n">
+        <v>1.037</v>
+      </c>
+    </row>
+    <row r="323">
+      <c r="A323" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B323" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C323" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="324">
+      <c r="A324" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B324" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C324" t="n">
+        <v>7.407</v>
+      </c>
+    </row>
+    <row r="325">
+      <c r="A325" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B325" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C325" t="n">
+        <v>1.291</v>
+      </c>
+    </row>
+    <row r="326">
+      <c r="A326" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B326" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C326" t="n">
+        <v>1.104</v>
+      </c>
+    </row>
+    <row r="327">
+      <c r="A327" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B327" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C327" t="n">
+        <v>1.222</v>
+      </c>
+    </row>
+    <row r="328">
+      <c r="A328" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B328" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C328" t="n">
+        <v>1.018</v>
+      </c>
+    </row>
+    <row r="329">
+      <c r="A329" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B329" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C329" t="n">
+        <v>4.261</v>
+      </c>
+    </row>
+    <row r="330">
+      <c r="A330" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B330" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C330" t="n">
+        <v>0.8080000000000001</v>
+      </c>
+    </row>
+    <row r="331">
+      <c r="A331" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B331" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C331" t="n">
+        <v>0.959</v>
+      </c>
+    </row>
+    <row r="332">
+      <c r="A332" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B332" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C332" t="n">
+        <v>0.717</v>
+      </c>
+    </row>
+    <row r="333">
+      <c r="A333" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B333" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C333" t="n">
+        <v>0.247</v>
+      </c>
+    </row>
+    <row r="334">
+      <c r="A334" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B334" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C334" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
+    <row r="335">
+      <c r="A335" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B335" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C335" t="n">
+        <v>0.949</v>
+      </c>
+    </row>
+    <row r="336">
+      <c r="A336" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B336" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C336" t="n">
+        <v>6.717</v>
+      </c>
+    </row>
+    <row r="337">
+      <c r="A337" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B337" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C337" t="n">
+        <v>1.11</v>
+      </c>
+    </row>
+    <row r="338">
+      <c r="A338" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B338" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C338" t="n">
+        <v>1.119</v>
+      </c>
+    </row>
+    <row r="339">
+      <c r="A339" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B339" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C339" t="n">
+        <v>1.117</v>
+      </c>
+    </row>
+    <row r="340">
+      <c r="A340" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B340" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C340" t="n">
+        <v>1.054</v>
+      </c>
+    </row>
+    <row r="341">
+      <c r="A341" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B341" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C341" t="n">
+        <v>4.45</v>
+      </c>
+    </row>
+    <row r="342">
+      <c r="A342" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B342" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C342" t="n">
+        <v>0.796</v>
+      </c>
+    </row>
+    <row r="343">
+      <c r="A343" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B343" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C343" t="n">
+        <v>0.901</v>
+      </c>
+    </row>
+    <row r="344">
+      <c r="A344" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:56 (Kyiv+Israel) 22:56 (UTC) 07:56 (Japan) 04:26 (India)</t>
+        </is>
+      </c>
+      <c r="B344" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C344" t="n">
+        <v>0.714</v>
       </c>
     </row>
   </sheetData>
@@ -1974,7 +5394,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4355"/>
+  <dimension ref="A1:C4595"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -64968,6 +68388,3426 @@
       </c>
       <c r="C4355" t="n">
         <v>0.503</v>
+      </c>
+    </row>
+    <row r="4356">
+      <c r="A4356" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4356" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4356" t="n">
+        <v>0.67</v>
+      </c>
+    </row>
+    <row r="4357">
+      <c r="A4357" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4357" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4357" t="n">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="4358">
+      <c r="A4358" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4358" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4358" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4359">
+      <c r="A4359" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4359" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4359" t="n">
+        <v>1.935</v>
+      </c>
+    </row>
+    <row r="4360">
+      <c r="A4360" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:42 (Kyiv+Israel) 01:42 (UTC) 10:42 (Japan) 07:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4360" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4360" t="n">
+        <v>0.348</v>
+      </c>
+    </row>
+    <row r="4361">
+      <c r="A4361" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4361" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4361" t="n">
+        <v>0.595</v>
+      </c>
+    </row>
+    <row r="4362">
+      <c r="A4362" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4362" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4362" t="n">
+        <v>0.421</v>
+      </c>
+    </row>
+    <row r="4363">
+      <c r="A4363" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4363" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4363" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="4364">
+      <c r="A4364" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4364" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4364" t="n">
+        <v>2.017</v>
+      </c>
+    </row>
+    <row r="4365">
+      <c r="A4365" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4365" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4365" t="n">
+        <v>0.434</v>
+      </c>
+    </row>
+    <row r="4366">
+      <c r="A4366" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4366" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4366" t="n">
+        <v>0.594</v>
+      </c>
+    </row>
+    <row r="4367">
+      <c r="A4367" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:43 (Kyiv+Israel) 01:43 (UTC) 10:43 (Japan) 07:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4367" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4367" t="n">
+        <v>0.654</v>
+      </c>
+    </row>
+    <row r="4368">
+      <c r="A4368" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4368" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4368" t="n">
+        <v>0.457</v>
+      </c>
+    </row>
+    <row r="4369">
+      <c r="A4369" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4369" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4369" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="4370">
+      <c r="A4370" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4370" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4370" t="n">
+        <v>0.677</v>
+      </c>
+    </row>
+    <row r="4371">
+      <c r="A4371" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4371" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4371" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="4372">
+      <c r="A4372" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4372" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4372" t="n">
+        <v>0.545</v>
+      </c>
+    </row>
+    <row r="4373">
+      <c r="A4373" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4373" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4373" t="n">
+        <v>0.471</v>
+      </c>
+    </row>
+    <row r="4374">
+      <c r="A4374" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4374" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4374" t="n">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row r="4375">
+      <c r="A4375" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4375" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4375" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="4376">
+      <c r="A4376" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:55 (Kyiv+Israel) 01:55 (UTC) 10:55 (Japan) 07:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4376" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4376" t="n">
+        <v>1.668</v>
+      </c>
+    </row>
+    <row r="4377">
+      <c r="A4377" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:56 (Kyiv+Israel) 01:56 (UTC) 10:56 (Japan) 07:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4377" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4377" t="n">
+        <v>0.317</v>
+      </c>
+    </row>
+    <row r="4378">
+      <c r="A4378" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:56 (Kyiv+Israel) 01:56 (UTC) 10:56 (Japan) 07:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4378" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4378" t="n">
+        <v>0.6870000000000001</v>
+      </c>
+    </row>
+    <row r="4379">
+      <c r="A4379" t="inlineStr">
+        <is>
+          <t>12.13.2022 03:56 (Kyiv+Israel) 01:56 (UTC) 10:56 (Japan) 07:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4379" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4379" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="4380">
+      <c r="A4380" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4380" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4380" t="n">
+        <v>0.448</v>
+      </c>
+    </row>
+    <row r="4381">
+      <c r="A4381" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4381" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4381" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4382">
+      <c r="A4382" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4382" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4382" t="n">
+        <v>0.435</v>
+      </c>
+    </row>
+    <row r="4383">
+      <c r="A4383" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4383" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4383" t="n">
+        <v>1.579</v>
+      </c>
+    </row>
+    <row r="4384">
+      <c r="A4384" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4384" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4384" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="4385">
+      <c r="A4385" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4385" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4385" t="n">
+        <v>0.318</v>
+      </c>
+    </row>
+    <row r="4386">
+      <c r="A4386" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4386" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4386" t="n">
+        <v>0.361</v>
+      </c>
+    </row>
+    <row r="4387">
+      <c r="A4387" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4387" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4387" t="n">
+        <v>0.955</v>
+      </c>
+    </row>
+    <row r="4388">
+      <c r="A4388" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4388" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4388" t="n">
+        <v>1.66</v>
+      </c>
+    </row>
+    <row r="4389">
+      <c r="A4389" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4389" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4389" t="n">
+        <v>0.309</v>
+      </c>
+    </row>
+    <row r="4390">
+      <c r="A4390" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4390" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4390" t="n">
+        <v>0.6830000000000001</v>
+      </c>
+    </row>
+    <row r="4391">
+      <c r="A4391" t="inlineStr">
+        <is>
+          <t>12.15.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4391" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4391" t="n">
+        <v>0.714</v>
+      </c>
+    </row>
+    <row r="4392">
+      <c r="A4392" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4392" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4392" t="n">
+        <v>0.46</v>
+      </c>
+    </row>
+    <row r="4393">
+      <c r="A4393" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4393" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4393" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="4394">
+      <c r="A4394" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4394" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4394" t="n">
+        <v>0.407</v>
+      </c>
+    </row>
+    <row r="4395">
+      <c r="A4395" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4395" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4395" t="n">
+        <v>1.678</v>
+      </c>
+    </row>
+    <row r="4396">
+      <c r="A4396" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4396" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4396" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="4397">
+      <c r="A4397" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4397" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4397" t="n">
+        <v>0.382</v>
+      </c>
+    </row>
+    <row r="4398">
+      <c r="A4398" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4398" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4398" t="n">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="4399">
+      <c r="A4399" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4399" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4399" t="n">
+        <v>0.974</v>
+      </c>
+    </row>
+    <row r="4400">
+      <c r="A4400" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4400" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4400" t="n">
+        <v>1.789</v>
+      </c>
+    </row>
+    <row r="4401">
+      <c r="A4401" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4401" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4401" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4402">
+      <c r="A4402" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4402" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4402" t="n">
+        <v>0.617</v>
+      </c>
+    </row>
+    <row r="4403">
+      <c r="A4403" t="inlineStr">
+        <is>
+          <t>12.16.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4403" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4403" t="n">
+        <v>0.523</v>
+      </c>
+    </row>
+    <row r="4404">
+      <c r="A4404" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4404" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4404" t="n">
+        <v>0.418</v>
+      </c>
+    </row>
+    <row r="4405">
+      <c r="A4405" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4405" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4405" t="n">
+        <v>0.379</v>
+      </c>
+    </row>
+    <row r="4406">
+      <c r="A4406" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4406" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4406" t="n">
+        <v>1.328</v>
+      </c>
+    </row>
+    <row r="4407">
+      <c r="A4407" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4407" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4407" t="n">
+        <v>1.682</v>
+      </c>
+    </row>
+    <row r="4408">
+      <c r="A4408" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4408" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4408" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="4409">
+      <c r="A4409" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4409" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4409" t="n">
+        <v>0.299</v>
+      </c>
+    </row>
+    <row r="4410">
+      <c r="A4410" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4410" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4410" t="n">
+        <v>0.423</v>
+      </c>
+    </row>
+    <row r="4411">
+      <c r="A4411" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4411" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4411" t="n">
+        <v>0.922</v>
+      </c>
+    </row>
+    <row r="4412">
+      <c r="A4412" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4412" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4412" t="n">
+        <v>1.914</v>
+      </c>
+    </row>
+    <row r="4413">
+      <c r="A4413" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4413" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4413" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="4414">
+      <c r="A4414" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4414" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4414" t="n">
+        <v>0.512</v>
+      </c>
+    </row>
+    <row r="4415">
+      <c r="A4415" t="inlineStr">
+        <is>
+          <t>12.16.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4415" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4415" t="n">
+        <v>0.738</v>
+      </c>
+    </row>
+    <row r="4416">
+      <c r="A4416" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4416" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4416" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="4417">
+      <c r="A4417" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4417" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4417" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="4418">
+      <c r="A4418" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4418" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4418" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="4419">
+      <c r="A4419" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4419" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4419" t="n">
+        <v>1.716</v>
+      </c>
+    </row>
+    <row r="4420">
+      <c r="A4420" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4420" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4420" t="n">
+        <v>0.31</v>
+      </c>
+    </row>
+    <row r="4421">
+      <c r="A4421" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4421" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4421" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="4422">
+      <c r="A4422" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4422" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4422" t="n">
+        <v>0.375</v>
+      </c>
+    </row>
+    <row r="4423">
+      <c r="A4423" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4423" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4423" t="n">
+        <v>1.083</v>
+      </c>
+    </row>
+    <row r="4424">
+      <c r="A4424" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4424" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4424" t="n">
+        <v>1.717</v>
+      </c>
+    </row>
+    <row r="4425">
+      <c r="A4425" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4425" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4425" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="4426">
+      <c r="A4426" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4426" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4426" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4427">
+      <c r="A4427" t="inlineStr">
+        <is>
+          <t>12.18.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4427" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4427" t="n">
+        <v>0.603</v>
+      </c>
+    </row>
+    <row r="4428">
+      <c r="A4428" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B4428" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4428" t="n">
+        <v>0.489</v>
+      </c>
+    </row>
+    <row r="4429">
+      <c r="A4429" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B4429" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4429" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4430">
+      <c r="A4430" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:00 (Kyiv+Israel) 19:00 (UTC) 04:00 (Japan) 00:30 (India)</t>
+        </is>
+      </c>
+      <c r="B4430" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4430" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="4431">
+      <c r="A4431" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4431" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4431" t="n">
+        <v>2.182</v>
+      </c>
+    </row>
+    <row r="4432">
+      <c r="A4432" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4432" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4432" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="4433">
+      <c r="A4433" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4433" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4433" t="n">
+        <v>0.991</v>
+      </c>
+    </row>
+    <row r="4434">
+      <c r="A4434" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4434" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4434" t="n">
+        <v>0.441</v>
+      </c>
+    </row>
+    <row r="4435">
+      <c r="A4435" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4435" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4435" t="n">
+        <v>1.676</v>
+      </c>
+    </row>
+    <row r="4436">
+      <c r="A4436" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4436" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4436" t="n">
+        <v>1.91</v>
+      </c>
+    </row>
+    <row r="4437">
+      <c r="A4437" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4437" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4437" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="4438">
+      <c r="A4438" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:01 (Kyiv+Israel) 19:01 (UTC) 04:01 (Japan) 00:31 (India)</t>
+        </is>
+      </c>
+      <c r="B4438" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4438" t="n">
+        <v>0.788</v>
+      </c>
+    </row>
+    <row r="4439">
+      <c r="A4439" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:02 (Kyiv+Israel) 19:02 (UTC) 04:02 (Japan) 00:32 (India)</t>
+        </is>
+      </c>
+      <c r="B4439" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4439" t="n">
+        <v>0.823</v>
+      </c>
+    </row>
+    <row r="4440">
+      <c r="A4440" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4440" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4440" t="n">
+        <v>0.412</v>
+      </c>
+    </row>
+    <row r="4441">
+      <c r="A4441" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4441" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4441" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="4442">
+      <c r="A4442" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4442" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4442" t="n">
+        <v>0.354</v>
+      </c>
+    </row>
+    <row r="4443">
+      <c r="A4443" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4443" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4443" t="n">
+        <v>2.141</v>
+      </c>
+    </row>
+    <row r="4444">
+      <c r="A4444" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4444" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4444" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="4445">
+      <c r="A4445" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4445" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4445" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="4446">
+      <c r="A4446" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4446" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4446" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="4447">
+      <c r="A4447" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4447" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4447" t="n">
+        <v>1.059</v>
+      </c>
+    </row>
+    <row r="4448">
+      <c r="A4448" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4448" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4448" t="n">
+        <v>1.682</v>
+      </c>
+    </row>
+    <row r="4449">
+      <c r="A4449" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4449" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4449" t="n">
+        <v>0.306</v>
+      </c>
+    </row>
+    <row r="4450">
+      <c r="A4450" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4450" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4450" t="n">
+        <v>0.635</v>
+      </c>
+    </row>
+    <row r="4451">
+      <c r="A4451" t="inlineStr">
+        <is>
+          <t>12.18.2022 21:56 (Kyiv+Israel) 19:56 (UTC) 04:56 (Japan) 01:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4451" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4451" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="4452">
+      <c r="A4452" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4452" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4452" t="n">
+        <v>0.456</v>
+      </c>
+    </row>
+    <row r="4453">
+      <c r="A4453" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4453" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4453" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="4454">
+      <c r="A4454" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4454" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4454" t="n">
+        <v>0.629</v>
+      </c>
+    </row>
+    <row r="4455">
+      <c r="A4455" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4455" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4455" t="n">
+        <v>1.655</v>
+      </c>
+    </row>
+    <row r="4456">
+      <c r="A4456" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4456" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4456" t="n">
+        <v>0.393</v>
+      </c>
+    </row>
+    <row r="4457">
+      <c r="A4457" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4457" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4457" t="n">
+        <v>0.463</v>
+      </c>
+    </row>
+    <row r="4458">
+      <c r="A4458" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4458" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4458" t="n">
+        <v>0.414</v>
+      </c>
+    </row>
+    <row r="4459">
+      <c r="A4459" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4459" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4459" t="n">
+        <v>2.138</v>
+      </c>
+    </row>
+    <row r="4460">
+      <c r="A4460" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4460" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4460" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4461">
+      <c r="A4461" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4461" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4461" t="n">
+        <v>0.263</v>
+      </c>
+    </row>
+    <row r="4462">
+      <c r="A4462" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4462" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4462" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="4463">
+      <c r="A4463" t="inlineStr">
+        <is>
+          <t>12.19.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4463" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4463" t="n">
+        <v>1.025</v>
+      </c>
+    </row>
+    <row r="4465">
+      <c r="A4465" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:49 (Kyiv+Israel) 12:49 (UTC) 21:49 (Japan) 18:19 (India)</t>
+        </is>
+      </c>
+      <c r="B4465" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4465" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="4467">
+      <c r="A4467" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:49 (Kyiv+Israel) 12:49 (UTC) 21:49 (Japan) 18:19 (India)</t>
+        </is>
+      </c>
+      <c r="B4467" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4467" t="n">
+        <v>0.363</v>
+      </c>
+    </row>
+    <row r="4469">
+      <c r="A4469" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4469" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4469" t="n">
+        <v>0.507</v>
+      </c>
+    </row>
+    <row r="4471">
+      <c r="A4471" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4471" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4471" t="n">
+        <v>1.691</v>
+      </c>
+    </row>
+    <row r="4473">
+      <c r="A4473" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4473" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4473" t="n">
+        <v>0.403</v>
+      </c>
+    </row>
+    <row r="4475">
+      <c r="A4475" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4475" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4475" t="n">
+        <v>0.501</v>
+      </c>
+    </row>
+    <row r="4477">
+      <c r="A4477" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4477" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4477" t="n">
+        <v>0.426</v>
+      </c>
+    </row>
+    <row r="4479">
+      <c r="A4479" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4479" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4479" t="n">
+        <v>1.005</v>
+      </c>
+    </row>
+    <row r="4481">
+      <c r="A4481" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4481" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4481" t="n">
+        <v>1.999</v>
+      </c>
+    </row>
+    <row r="4483">
+      <c r="A4483" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4483" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4483" t="n">
+        <v>0.294</v>
+      </c>
+    </row>
+    <row r="4485">
+      <c r="A4485" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4485" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4485" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="4487">
+      <c r="A4487" t="inlineStr">
+        <is>
+          <t>12.19.2022 14:50 (Kyiv+Israel) 12:50 (UTC) 21:50 (Japan) 18:20 (India)</t>
+        </is>
+      </c>
+      <c r="B4487" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4487" t="n">
+        <v>0.548</v>
+      </c>
+    </row>
+    <row r="4488">
+      <c r="A4488" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4488" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4488" t="n">
+        <v>0.49</v>
+      </c>
+    </row>
+    <row r="4489">
+      <c r="A4489" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4489" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4489" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="4490">
+      <c r="A4490" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4490" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4490" t="n">
+        <v>0.781</v>
+      </c>
+    </row>
+    <row r="4491">
+      <c r="A4491" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4491" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4491" t="n">
+        <v>1.652</v>
+      </c>
+    </row>
+    <row r="4492">
+      <c r="A4492" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4492" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4492" t="n">
+        <v>0.883</v>
+      </c>
+    </row>
+    <row r="4493">
+      <c r="A4493" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4493" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4493" t="n">
+        <v>0.394</v>
+      </c>
+    </row>
+    <row r="4494">
+      <c r="A4494" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4494" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4494" t="n">
+        <v>0.675</v>
+      </c>
+    </row>
+    <row r="4495">
+      <c r="A4495" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4495" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4495" t="n">
+        <v>1.553</v>
+      </c>
+    </row>
+    <row r="4496">
+      <c r="A4496" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4496" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4496" t="n">
+        <v>2.278</v>
+      </c>
+    </row>
+    <row r="4497">
+      <c r="A4497" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4497" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4497" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4498">
+      <c r="A4498" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4498" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4498" t="n">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="4499">
+      <c r="A4499" t="inlineStr">
+        <is>
+          <t>12.19.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4499" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4499" t="n">
+        <v>3.303</v>
+      </c>
+    </row>
+    <row r="4500">
+      <c r="A4500" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4500" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4500" t="n">
+        <v>0.475</v>
+      </c>
+    </row>
+    <row r="4501">
+      <c r="A4501" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4501" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4501" t="n">
+        <v>0.35</v>
+      </c>
+    </row>
+    <row r="4502">
+      <c r="A4502" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4502" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4502" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4503">
+      <c r="A4503" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4503" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4503" t="n">
+        <v>1.577</v>
+      </c>
+    </row>
+    <row r="4504">
+      <c r="A4504" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4504" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4504" t="n">
+        <v>0.444</v>
+      </c>
+    </row>
+    <row r="4505">
+      <c r="A4505" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4505" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4505" t="n">
+        <v>0.38</v>
+      </c>
+    </row>
+    <row r="4506">
+      <c r="A4506" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4506" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4506" t="n">
+        <v>0.397</v>
+      </c>
+    </row>
+    <row r="4507">
+      <c r="A4507" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4507" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4507" t="n">
+        <v>1.023</v>
+      </c>
+    </row>
+    <row r="4508">
+      <c r="A4508" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4508" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4508" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="4509">
+      <c r="A4509" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4509" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4509" t="n">
+        <v>0.285</v>
+      </c>
+    </row>
+    <row r="4510">
+      <c r="A4510" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4510" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4510" t="n">
+        <v>0.609</v>
+      </c>
+    </row>
+    <row r="4511">
+      <c r="A4511" t="inlineStr">
+        <is>
+          <t>12.19.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4511" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4511" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4512">
+      <c r="A4512" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B4512" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4512" t="n">
+        <v>0.433</v>
+      </c>
+    </row>
+    <row r="4513">
+      <c r="A4513" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B4513" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4513" t="n">
+        <v>0.39</v>
+      </c>
+    </row>
+    <row r="4514">
+      <c r="A4514" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B4514" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4514" t="n">
+        <v>0.601</v>
+      </c>
+    </row>
+    <row r="4515">
+      <c r="A4515" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:22 (Kyiv+Israel) 20:22 (UTC) 05:22 (Japan) 01:52 (India)</t>
+        </is>
+      </c>
+      <c r="B4515" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4515" t="n">
+        <v>1.673</v>
+      </c>
+    </row>
+    <row r="4516">
+      <c r="A4516" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4516" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4516" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
+    <row r="4517">
+      <c r="A4517" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4517" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4517" t="n">
+        <v>0.461</v>
+      </c>
+    </row>
+    <row r="4518">
+      <c r="A4518" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4518" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4518" t="n">
+        <v>0.381</v>
+      </c>
+    </row>
+    <row r="4519">
+      <c r="A4519" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4519" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4519" t="n">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="4520">
+      <c r="A4520" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4520" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4520" t="n">
+        <v>1.831</v>
+      </c>
+    </row>
+    <row r="4521">
+      <c r="A4521" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4521" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4521" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="4522">
+      <c r="A4522" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4522" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4522" t="n">
+        <v>0.614</v>
+      </c>
+    </row>
+    <row r="4523">
+      <c r="A4523" t="inlineStr">
+        <is>
+          <t>12.19.2022 22:23 (Kyiv+Israel) 20:23 (UTC) 05:23 (Japan) 01:53 (India)</t>
+        </is>
+      </c>
+      <c r="B4523" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4523" t="n">
+        <v>0.553</v>
+      </c>
+    </row>
+    <row r="4524">
+      <c r="A4524" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4524" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4524" t="n">
+        <v>0.383</v>
+      </c>
+    </row>
+    <row r="4525">
+      <c r="A4525" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4525" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4525" t="n">
+        <v>0.388</v>
+      </c>
+    </row>
+    <row r="4526">
+      <c r="A4526" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4526" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4526" t="n">
+        <v>0.332</v>
+      </c>
+    </row>
+    <row r="4527">
+      <c r="A4527" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4527" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4527" t="n">
+        <v>1.607</v>
+      </c>
+    </row>
+    <row r="4528">
+      <c r="A4528" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4528" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4528" t="n">
+        <v>0.319</v>
+      </c>
+    </row>
+    <row r="4529">
+      <c r="A4529" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4529" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4529" t="n">
+        <v>0.424</v>
+      </c>
+    </row>
+    <row r="4530">
+      <c r="A4530" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4530" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4530" t="n">
+        <v>0.377</v>
+      </c>
+    </row>
+    <row r="4531">
+      <c r="A4531" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:55 (Kyiv+Israel) 07:55 (UTC) 16:55 (Japan) 13:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4531" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4531" t="n">
+        <v>0.99</v>
+      </c>
+    </row>
+    <row r="4532">
+      <c r="A4532" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4532" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4532" t="n">
+        <v>1.646</v>
+      </c>
+    </row>
+    <row r="4533">
+      <c r="A4533" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4533" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4533" t="n">
+        <v>0.315</v>
+      </c>
+    </row>
+    <row r="4534">
+      <c r="A4534" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4534" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4534" t="n">
+        <v>0.659</v>
+      </c>
+    </row>
+    <row r="4535">
+      <c r="A4535" t="inlineStr">
+        <is>
+          <t>12.20.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4535" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4535" t="n">
+        <v>0.524</v>
+      </c>
+    </row>
+    <row r="4536">
+      <c r="A4536" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4536" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4536" t="n">
+        <v>0.44</v>
+      </c>
+    </row>
+    <row r="4537">
+      <c r="A4537" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4537" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4537" t="n">
+        <v>0.476</v>
+      </c>
+    </row>
+    <row r="4538">
+      <c r="A4538" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4538" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4538" t="n">
+        <v>0.65</v>
+      </c>
+    </row>
+    <row r="4539">
+      <c r="A4539" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4539" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4539" t="n">
+        <v>2.581</v>
+      </c>
+    </row>
+    <row r="4540">
+      <c r="A4540" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4540" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4540" t="n">
+        <v>0.406</v>
+      </c>
+    </row>
+    <row r="4541">
+      <c r="A4541" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4541" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4541" t="n">
+        <v>0.474</v>
+      </c>
+    </row>
+    <row r="4542">
+      <c r="A4542" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4542" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4542" t="n">
+        <v>0.509</v>
+      </c>
+    </row>
+    <row r="4543">
+      <c r="A4543" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4543" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4543" t="n">
+        <v>1.808</v>
+      </c>
+    </row>
+    <row r="4544">
+      <c r="A4544" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4544" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4544" t="n">
+        <v>1.849</v>
+      </c>
+    </row>
+    <row r="4545">
+      <c r="A4545" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B4545" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4545" t="n">
+        <v>0.525</v>
+      </c>
+    </row>
+    <row r="4546">
+      <c r="A4546" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B4546" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4546" t="n">
+        <v>0.719</v>
+      </c>
+    </row>
+    <row r="4547">
+      <c r="A4547" t="inlineStr">
+        <is>
+          <t>12.20.2022 12:57 (Kyiv+Israel) 10:57 (UTC) 19:57 (Japan) 16:27 (India)</t>
+        </is>
+      </c>
+      <c r="B4547" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4547" t="n">
+        <v>0.705</v>
+      </c>
+    </row>
+    <row r="4548">
+      <c r="A4548" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B4548" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4548" t="n">
+        <v>1.47</v>
+      </c>
+    </row>
+    <row r="4549">
+      <c r="A4549" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B4549" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4549" t="n">
+        <v>0.715</v>
+      </c>
+    </row>
+    <row r="4550">
+      <c r="A4550" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B4550" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4550" t="n">
+        <v>0.666</v>
+      </c>
+    </row>
+    <row r="4551">
+      <c r="A4551" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:12 (Kyiv+Israel) 15:12 (UTC) 00:12 (Japan) 20:42 (India)</t>
+        </is>
+      </c>
+      <c r="B4551" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4551" t="n">
+        <v>1.74</v>
+      </c>
+    </row>
+    <row r="4552">
+      <c r="A4552" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4552" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4552" t="n">
+        <v>0.491</v>
+      </c>
+    </row>
+    <row r="4553">
+      <c r="A4553" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4553" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4553" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="4554">
+      <c r="A4554" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4554" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4554" t="n">
+        <v>0.498</v>
+      </c>
+    </row>
+    <row r="4555">
+      <c r="A4555" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4555" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4555" t="n">
+        <v>1.433</v>
+      </c>
+    </row>
+    <row r="4556">
+      <c r="A4556" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4556" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4556" t="n">
+        <v>1.857</v>
+      </c>
+    </row>
+    <row r="4557">
+      <c r="A4557" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4557" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4557" t="n">
+        <v>0.6820000000000001</v>
+      </c>
+    </row>
+    <row r="4558">
+      <c r="A4558" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:13 (Kyiv+Israel) 15:13 (UTC) 00:13 (Japan) 20:43 (India)</t>
+        </is>
+      </c>
+      <c r="B4558" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4558" t="n">
+        <v>0.8110000000000001</v>
+      </c>
+    </row>
+    <row r="4559">
+      <c r="A4559" t="inlineStr">
+        <is>
+          <t>12.20.2022 17:14 (Kyiv+Israel) 15:14 (UTC) 00:14 (Japan) 20:44 (India)</t>
+        </is>
+      </c>
+      <c r="B4559" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4559" t="n">
+        <v>1.559</v>
+      </c>
+    </row>
+    <row r="4560">
+      <c r="A4560" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4560" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4560" t="n">
+        <v>0.43</v>
+      </c>
+    </row>
+    <row r="4561">
+      <c r="A4561" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4561" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4561" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="4562">
+      <c r="A4562" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4562" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4562" t="n">
+        <v>0.338</v>
+      </c>
+    </row>
+    <row r="4563">
+      <c r="A4563" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4563" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4563" t="n">
+        <v>2.613</v>
+      </c>
+    </row>
+    <row r="4564">
+      <c r="A4564" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4564" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4564" t="n">
+        <v>0.351</v>
+      </c>
+    </row>
+    <row r="4565">
+      <c r="A4565" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4565" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4565" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="4566">
+      <c r="A4566" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4566" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4566" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="4567">
+      <c r="A4567" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4567" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4567" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="4568">
+      <c r="A4568" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4568" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4568" t="n">
+        <v>1.751</v>
+      </c>
+    </row>
+    <row r="4569">
+      <c r="A4569" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:55 (Kyiv+Israel) 16:55 (UTC) 01:55 (Japan) 22:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4569" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4569" t="n">
+        <v>0.266</v>
+      </c>
+    </row>
+    <row r="4570">
+      <c r="A4570" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4570" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4570" t="n">
+        <v>0.541</v>
+      </c>
+    </row>
+    <row r="4571">
+      <c r="A4571" t="inlineStr">
+        <is>
+          <t>12.20.2022 18:56 (Kyiv+Israel) 16:56 (UTC) 01:56 (Japan) 22:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4571" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4571" t="n">
+        <v>0.482</v>
+      </c>
+    </row>
+    <row r="4572">
+      <c r="A4572" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4572" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4572" t="n">
+        <v>0.398</v>
+      </c>
+    </row>
+    <row r="4573">
+      <c r="A4573" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4573" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4573" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="4574">
+      <c r="A4574" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4574" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4574" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="4575">
+      <c r="A4575" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4575" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4575" t="n">
+        <v>1.713</v>
+      </c>
+    </row>
+    <row r="4576">
+      <c r="A4576" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4576" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4576" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="4577">
+      <c r="A4577" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4577" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4577" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="4578">
+      <c r="A4578" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4578" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4578" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="4579">
+      <c r="A4579" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4579" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4579" t="n">
+        <v>0.992</v>
+      </c>
+    </row>
+    <row r="4580">
+      <c r="A4580" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4580" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4580" t="n">
+        <v>1.677</v>
+      </c>
+    </row>
+    <row r="4581">
+      <c r="A4581" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4581" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4581" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="4582">
+      <c r="A4582" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4582" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4582" t="n">
+        <v>0.5649999999999999</v>
+      </c>
+    </row>
+    <row r="4583">
+      <c r="A4583" t="inlineStr">
+        <is>
+          <t>12.20.2022 21:55 (Kyiv+Israel) 19:55 (UTC) 04:55 (Japan) 01:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4583" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4583" t="n">
+        <v>0.513</v>
+      </c>
+    </row>
+    <row r="4584">
+      <c r="A4584" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4584" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4584" t="n">
+        <v>0.401</v>
+      </c>
+    </row>
+    <row r="4585">
+      <c r="A4585" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4585" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4585" t="n">
+        <v>0.436</v>
+      </c>
+    </row>
+    <row r="4586">
+      <c r="A4586" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4586" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4586" t="n">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="4587">
+      <c r="A4587" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4587" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4587" t="n">
+        <v>1.67</v>
+      </c>
+    </row>
+    <row r="4588">
+      <c r="A4588" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4588" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4588" t="n">
+        <v>0.29</v>
+      </c>
+    </row>
+    <row r="4589">
+      <c r="A4589" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4589" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4589" t="n">
+        <v>0.651</v>
+      </c>
+    </row>
+    <row r="4590">
+      <c r="A4590" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4590" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4590" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="4591">
+      <c r="A4591" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4591" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4591" t="n">
+        <v>0.931</v>
+      </c>
+    </row>
+    <row r="4592">
+      <c r="A4592" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4592" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4592" t="n">
+        <v>1.651</v>
+      </c>
+    </row>
+    <row r="4593">
+      <c r="A4593" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:55 (Kyiv+Israel) 22:55 (UTC) 07:55 (Japan) 04:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4593" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4593" t="n">
+        <v>0.284</v>
+      </c>
+    </row>
+    <row r="4594">
+      <c r="A4594" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:56 (Kyiv+Israel) 22:56 (UTC) 07:56 (Japan) 04:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4594" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4594" t="n">
+        <v>0.642</v>
+      </c>
+    </row>
+    <row r="4595">
+      <c r="A4595" t="inlineStr">
+        <is>
+          <t>12.21.2022 00:56 (Kyiv+Israel) 22:56 (UTC) 07:56 (Japan) 04:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4595" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4595" t="n">
+        <v>0.524</v>
       </c>
     </row>
   </sheetData>

--- a/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (2022).xlsx
+++ b/ADtests/Resources/Extra files/RF LOAD RESULTS/SystemUPTime (2022).xlsx
@@ -352,7 +352,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C344"/>
+  <dimension ref="A1:C476"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A2" sqref="A2:E4255"/>
@@ -5345,6 +5345,1986 @@
       </c>
       <c r="C344" t="n">
         <v>0.714</v>
+      </c>
+    </row>
+    <row r="345">
+      <c r="A345" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B345" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C345" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="346">
+      <c r="A346" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B346" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C346" t="n">
+        <v>1.033</v>
+      </c>
+    </row>
+    <row r="347">
+      <c r="A347" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B347" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C347" t="n">
+        <v>1.209</v>
+      </c>
+    </row>
+    <row r="348">
+      <c r="A348" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B348" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C348" t="n">
+        <v>7.52</v>
+      </c>
+    </row>
+    <row r="349">
+      <c r="A349" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B349" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C349" t="n">
+        <v>1.304</v>
+      </c>
+    </row>
+    <row r="350">
+      <c r="A350" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B350" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C350" t="n">
+        <v>1.113</v>
+      </c>
+    </row>
+    <row r="351">
+      <c r="A351" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B351" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C351" t="n">
+        <v>1.146</v>
+      </c>
+    </row>
+    <row r="352">
+      <c r="A352" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B352" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C352" t="n">
+        <v>1.15</v>
+      </c>
+    </row>
+    <row r="353">
+      <c r="A353" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B353" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C353" t="n">
+        <v>4.253</v>
+      </c>
+    </row>
+    <row r="354">
+      <c r="A354" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B354" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C354" t="n">
+        <v>0.8100000000000001</v>
+      </c>
+    </row>
+    <row r="355">
+      <c r="A355" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B355" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C355" t="n">
+        <v>0.8070000000000001</v>
+      </c>
+    </row>
+    <row r="356">
+      <c r="A356" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B356" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C356" t="n">
+        <v>1.379</v>
+      </c>
+    </row>
+    <row r="357">
+      <c r="A357" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B357" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C357" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="358">
+      <c r="A358" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B358" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C358" t="n">
+        <v>1.435</v>
+      </c>
+    </row>
+    <row r="359">
+      <c r="A359" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B359" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C359" t="n">
+        <v>1.446</v>
+      </c>
+    </row>
+    <row r="360">
+      <c r="A360" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B360" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C360" t="n">
+        <v>6.84</v>
+      </c>
+    </row>
+    <row r="361">
+      <c r="A361" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B361" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C361" t="n">
+        <v>1.361</v>
+      </c>
+    </row>
+    <row r="362">
+      <c r="A362" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B362" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C362" t="n">
+        <v>2.639</v>
+      </c>
+    </row>
+    <row r="363">
+      <c r="A363" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B363" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C363" t="n">
+        <v>1.193</v>
+      </c>
+    </row>
+    <row r="364">
+      <c r="A364" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B364" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C364" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="365">
+      <c r="A365" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B365" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C365" t="n">
+        <v>5.246</v>
+      </c>
+    </row>
+    <row r="366">
+      <c r="A366" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B366" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C366" t="n">
+        <v>0.822</v>
+      </c>
+    </row>
+    <row r="367">
+      <c r="A367" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B367" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C367" t="n">
+        <v>1.158</v>
+      </c>
+    </row>
+    <row r="368">
+      <c r="A368" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B368" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C368" t="n">
+        <v>0.728</v>
+      </c>
+    </row>
+    <row r="369">
+      <c r="A369" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B369" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C369" t="n">
+        <v>0.276</v>
+      </c>
+    </row>
+    <row r="370">
+      <c r="A370" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B370" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C370" t="n">
+        <v>4.005</v>
+      </c>
+    </row>
+    <row r="371">
+      <c r="A371" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B371" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C371" t="n">
+        <v>0.899</v>
+      </c>
+    </row>
+    <row r="372">
+      <c r="A372" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B372" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C372" t="n">
+        <v>9.93</v>
+      </c>
+    </row>
+    <row r="373">
+      <c r="A373" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B373" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C373" t="n">
+        <v>1.539</v>
+      </c>
+    </row>
+    <row r="374">
+      <c r="A374" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B374" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C374" t="n">
+        <v>1.215</v>
+      </c>
+    </row>
+    <row r="375">
+      <c r="A375" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B375" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C375" t="n">
+        <v>1.037</v>
+      </c>
+    </row>
+    <row r="376">
+      <c r="A376" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B376" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C376" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="377">
+      <c r="A377" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B377" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C377" t="n">
+        <v>4.656</v>
+      </c>
+    </row>
+    <row r="378">
+      <c r="A378" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B378" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C378" t="n">
+        <v>1.425</v>
+      </c>
+    </row>
+    <row r="379">
+      <c r="A379" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B379" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C379" t="n">
+        <v>0.858</v>
+      </c>
+    </row>
+    <row r="380">
+      <c r="A380" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B380" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C380" t="n">
+        <v>1.82</v>
+      </c>
+    </row>
+    <row r="381">
+      <c r="A381" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B381" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C381" t="n">
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="382">
+      <c r="A382" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B382" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C382" t="n">
+        <v>1.024</v>
+      </c>
+    </row>
+    <row r="383">
+      <c r="A383" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B383" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C383" t="n">
+        <v>1.443</v>
+      </c>
+    </row>
+    <row r="384">
+      <c r="A384" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B384" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C384" t="n">
+        <v>7.253</v>
+      </c>
+    </row>
+    <row r="385">
+      <c r="A385" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B385" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C385" t="n">
+        <v>1.127</v>
+      </c>
+    </row>
+    <row r="386">
+      <c r="A386" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B386" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C386" t="n">
+        <v>1.136</v>
+      </c>
+    </row>
+    <row r="387">
+      <c r="A387" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B387" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C387" t="n">
+        <v>1.358</v>
+      </c>
+    </row>
+    <row r="388">
+      <c r="A388" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B388" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C388" t="n">
+        <v>1.115</v>
+      </c>
+    </row>
+    <row r="389">
+      <c r="A389" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B389" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C389" t="n">
+        <v>4.345</v>
+      </c>
+    </row>
+    <row r="390">
+      <c r="A390" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B390" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C390" t="n">
+        <v>0.797</v>
+      </c>
+    </row>
+    <row r="391">
+      <c r="A391" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:43 (Kyiv+Israel) 07:43 (UTC) 16:43 (Japan) 13:13 (India)</t>
+        </is>
+      </c>
+      <c r="B391" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C391" t="n">
+        <v>0.823</v>
+      </c>
+    </row>
+    <row r="392">
+      <c r="A392" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:43 (Kyiv+Israel) 07:43 (UTC) 16:43 (Japan) 13:13 (India)</t>
+        </is>
+      </c>
+      <c r="B392" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C392" t="n">
+        <v>0.702</v>
+      </c>
+    </row>
+    <row r="393">
+      <c r="A393" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B393" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C393" t="n">
+        <v>0.253</v>
+      </c>
+    </row>
+    <row r="394">
+      <c r="A394" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B394" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C394" t="n">
+        <v>0.989</v>
+      </c>
+    </row>
+    <row r="395">
+      <c r="A395" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B395" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C395" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="396">
+      <c r="A396" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B396" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C396" t="n">
+        <v>6.99</v>
+      </c>
+    </row>
+    <row r="397">
+      <c r="A397" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B397" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C397" t="n">
+        <v>1.199</v>
+      </c>
+    </row>
+    <row r="398">
+      <c r="A398" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B398" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C398" t="n">
+        <v>1.176</v>
+      </c>
+    </row>
+    <row r="399">
+      <c r="A399" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B399" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C399" t="n">
+        <v>1.274</v>
+      </c>
+    </row>
+    <row r="400">
+      <c r="A400" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B400" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C400" t="n">
+        <v>1.316</v>
+      </c>
+    </row>
+    <row r="401">
+      <c r="A401" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B401" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C401" t="n">
+        <v>4.365</v>
+      </c>
+    </row>
+    <row r="402">
+      <c r="A402" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B402" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C402" t="n">
+        <v>1.226</v>
+      </c>
+    </row>
+    <row r="403">
+      <c r="A403" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B403" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C403" t="n">
+        <v>0.978</v>
+      </c>
+    </row>
+    <row r="404">
+      <c r="A404" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B404" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C404" t="n">
+        <v>1.067</v>
+      </c>
+    </row>
+    <row r="405">
+      <c r="A405" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B405" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C405" t="n">
+        <v>0.269</v>
+      </c>
+    </row>
+    <row r="406">
+      <c r="A406" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B406" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C406" t="n">
+        <v>1.052</v>
+      </c>
+    </row>
+    <row r="407">
+      <c r="A407" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B407" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C407" t="n">
+        <v>0.968</v>
+      </c>
+    </row>
+    <row r="408">
+      <c r="A408" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B408" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C408" t="n">
+        <v>8.337999999999999</v>
+      </c>
+    </row>
+    <row r="409">
+      <c r="A409" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B409" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C409" t="n">
+        <v>1.129</v>
+      </c>
+    </row>
+    <row r="410">
+      <c r="A410" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B410" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C410" t="n">
+        <v>1.349</v>
+      </c>
+    </row>
+    <row r="411">
+      <c r="A411" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B411" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C411" t="n">
+        <v>1.034</v>
+      </c>
+    </row>
+    <row r="412">
+      <c r="A412" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B412" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C412" t="n">
+        <v>1.061</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B413" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C413" t="n">
+        <v>4.531</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C414" t="n">
+        <v>0.766</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C415" t="n">
+        <v>0.9389999999999999</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B416" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C416" t="n">
+        <v>0.667</v>
+      </c>
+    </row>
+    <row r="417">
+      <c r="A417" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B417" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C417" t="n">
+        <v>0.254</v>
+      </c>
+    </row>
+    <row r="418">
+      <c r="A418" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B418" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C418" t="n">
+        <v>1.656</v>
+      </c>
+    </row>
+    <row r="419">
+      <c r="A419" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B419" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C419" t="n">
+        <v>1.186</v>
+      </c>
+    </row>
+    <row r="420">
+      <c r="A420" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B420" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C420" t="n">
+        <v>7.592</v>
+      </c>
+    </row>
+    <row r="421">
+      <c r="A421" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B421" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C421" t="n">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="422">
+      <c r="A422" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B422" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C422" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="423">
+      <c r="A423" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B423" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C423" t="n">
+        <v>1.297</v>
+      </c>
+    </row>
+    <row r="424">
+      <c r="A424" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B424" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C424" t="n">
+        <v>1.032</v>
+      </c>
+    </row>
+    <row r="425">
+      <c r="A425" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B425" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C425" t="n">
+        <v>4.403</v>
+      </c>
+    </row>
+    <row r="426">
+      <c r="A426" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B426" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C426" t="n">
+        <v>1.203</v>
+      </c>
+    </row>
+    <row r="427">
+      <c r="A427" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B427" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C427" t="n">
+        <v>1.396</v>
+      </c>
+    </row>
+    <row r="428">
+      <c r="A428" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B428" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C428" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="429">
+      <c r="A429" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B429" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C429" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="430">
+      <c r="A430" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B430" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C430" t="n">
+        <v>1.331</v>
+      </c>
+    </row>
+    <row r="431">
+      <c r="A431" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B431" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C431" t="n">
+        <v>1.204</v>
+      </c>
+    </row>
+    <row r="432">
+      <c r="A432" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B432" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C432" t="n">
+        <v>7.518</v>
+      </c>
+    </row>
+    <row r="433">
+      <c r="A433" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B433" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C433" t="n">
+        <v>2.137</v>
+      </c>
+    </row>
+    <row r="434">
+      <c r="A434" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B434" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C434" t="n">
+        <v>1.326</v>
+      </c>
+    </row>
+    <row r="435">
+      <c r="A435" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B435" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C435" t="n">
+        <v>1.081</v>
+      </c>
+    </row>
+    <row r="436">
+      <c r="A436" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B436" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C436" t="n">
+        <v>1.003</v>
+      </c>
+    </row>
+    <row r="437">
+      <c r="A437" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B437" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C437" t="n">
+        <v>4.207</v>
+      </c>
+    </row>
+    <row r="438">
+      <c r="A438" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B438" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C438" t="n">
+        <v>0.821</v>
+      </c>
+    </row>
+    <row r="439">
+      <c r="A439" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B439" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C439" t="n">
+        <v>0.824</v>
+      </c>
+    </row>
+    <row r="440">
+      <c r="A440" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B440" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C440" t="n">
+        <v>0.656</v>
+      </c>
+    </row>
+    <row r="441">
+      <c r="A441" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B441" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C441" t="n">
+        <v>0.268</v>
+      </c>
+    </row>
+    <row r="442">
+      <c r="A442" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B442" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C442" t="n">
+        <v>1.285</v>
+      </c>
+    </row>
+    <row r="443">
+      <c r="A443" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B443" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C443" t="n">
+        <v>2.562</v>
+      </c>
+    </row>
+    <row r="444">
+      <c r="A444" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B444" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C444" t="n">
+        <v>9.394</v>
+      </c>
+    </row>
+    <row r="445">
+      <c r="A445" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B445" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C445" t="n">
+        <v>2.436</v>
+      </c>
+    </row>
+    <row r="446">
+      <c r="A446" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B446" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C446" t="n">
+        <v>1.629</v>
+      </c>
+    </row>
+    <row r="447">
+      <c r="A447" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B447" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C447" t="n">
+        <v>1.209</v>
+      </c>
+    </row>
+    <row r="448">
+      <c r="A448" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B448" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C448" t="n">
+        <v>1.017</v>
+      </c>
+    </row>
+    <row r="449">
+      <c r="A449" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B449" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C449" t="n">
+        <v>4.501</v>
+      </c>
+    </row>
+    <row r="450">
+      <c r="A450" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B450" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C450" t="n">
+        <v>0.826</v>
+      </c>
+    </row>
+    <row r="451">
+      <c r="A451" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B451" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C451" t="n">
+        <v>1.725</v>
+      </c>
+    </row>
+    <row r="452">
+      <c r="A452" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B452" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C452" t="n">
+        <v>0.777</v>
+      </c>
+    </row>
+    <row r="453">
+      <c r="A453" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B453" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C453" t="n">
+        <v>0.262</v>
+      </c>
+    </row>
+    <row r="454">
+      <c r="A454" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B454" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C454" t="n">
+        <v>1.03</v>
+      </c>
+    </row>
+    <row r="455">
+      <c r="A455" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B455" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C455" t="n">
+        <v>0.975</v>
+      </c>
+    </row>
+    <row r="456">
+      <c r="A456" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B456" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C456" t="n">
+        <v>6.845</v>
+      </c>
+    </row>
+    <row r="457">
+      <c r="A457" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B457" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C457" t="n">
+        <v>1.261</v>
+      </c>
+    </row>
+    <row r="458">
+      <c r="A458" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B458" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C458" t="n">
+        <v>1.055</v>
+      </c>
+    </row>
+    <row r="459">
+      <c r="A459" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B459" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C459" t="n">
+        <v>1.225</v>
+      </c>
+    </row>
+    <row r="460">
+      <c r="A460" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B460" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C460" t="n">
+        <v>1.236</v>
+      </c>
+    </row>
+    <row r="461">
+      <c r="A461" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B461" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C461" t="n">
+        <v>4.322</v>
+      </c>
+    </row>
+    <row r="462">
+      <c r="A462" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B462" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C462" t="n">
+        <v>0.894</v>
+      </c>
+    </row>
+    <row r="463">
+      <c r="A463" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B463" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C463" t="n">
+        <v>1.114</v>
+      </c>
+    </row>
+    <row r="464">
+      <c r="A464" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B464" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C464" t="n">
+        <v>0.793</v>
+      </c>
+    </row>
+    <row r="465">
+      <c r="A465" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B465" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C465" t="n">
+        <v>0.287</v>
+      </c>
+    </row>
+    <row r="466">
+      <c r="A466" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B466" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/login.php</t>
+        </is>
+      </c>
+      <c r="C466" t="n">
+        <v>1.125</v>
+      </c>
+    </row>
+    <row r="467">
+      <c r="A467" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B467" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/login.php</t>
+        </is>
+      </c>
+      <c r="C467" t="n">
+        <v>0.9330000000000001</v>
+      </c>
+    </row>
+    <row r="468">
+      <c r="A468" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B468" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/login.php</t>
+        </is>
+      </c>
+      <c r="C468" t="n">
+        <v>6.777</v>
+      </c>
+    </row>
+    <row r="469">
+      <c r="A469" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B469" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C469" t="n">
+        <v>1.956</v>
+      </c>
+    </row>
+    <row r="470">
+      <c r="A470" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B470" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C470" t="n">
+        <v>1.243</v>
+      </c>
+    </row>
+    <row r="471">
+      <c r="A471" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B471" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C471" t="n">
+        <v>1.074</v>
+      </c>
+    </row>
+    <row r="472">
+      <c r="A472" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B472" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/login.php</t>
+        </is>
+      </c>
+      <c r="C472" t="n">
+        <v>1.028</v>
+      </c>
+    </row>
+    <row r="473">
+      <c r="A473" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B473" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/login.php</t>
+        </is>
+      </c>
+      <c r="C473" t="n">
+        <v>4.497</v>
+      </c>
+    </row>
+    <row r="474">
+      <c r="A474" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B474" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/login.php</t>
+        </is>
+      </c>
+      <c r="C474" t="n">
+        <v>0.867</v>
+      </c>
+    </row>
+    <row r="475">
+      <c r="A475" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B475" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/login.php</t>
+        </is>
+      </c>
+      <c r="C475" t="n">
+        <v>1.078</v>
+      </c>
+    </row>
+    <row r="476">
+      <c r="A476" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:57 (Kyiv+Israel) 13:57 (UTC) 22:57 (Japan) 19:27 (India)</t>
+        </is>
+      </c>
+      <c r="B476" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/login.php</t>
+        </is>
+      </c>
+      <c r="C476" t="n">
+        <v>0.749</v>
       </c>
     </row>
   </sheetData>
@@ -5394,7 +7374,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C4595"/>
+  <dimension ref="A1:C4727"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
@@ -71808,6 +73788,1986 @@
       </c>
       <c r="C4595" t="n">
         <v>0.524</v>
+      </c>
+    </row>
+    <row r="4596">
+      <c r="A4596" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4596" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4596" t="n">
+        <v>0.384</v>
+      </c>
+    </row>
+    <row r="4597">
+      <c r="A4597" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4597" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4597" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="4598">
+      <c r="A4598" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4598" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4598" t="n">
+        <v>0.353</v>
+      </c>
+    </row>
+    <row r="4599">
+      <c r="A4599" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4599" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4599" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4600">
+      <c r="A4600" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4600" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4600" t="n">
+        <v>0.312</v>
+      </c>
+    </row>
+    <row r="4601">
+      <c r="A4601" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4601" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4601" t="n">
+        <v>0.339</v>
+      </c>
+    </row>
+    <row r="4602">
+      <c r="A4602" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4602" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4602" t="n">
+        <v>0.324</v>
+      </c>
+    </row>
+    <row r="4603">
+      <c r="A4603" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4603" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4603" t="n">
+        <v>0.921</v>
+      </c>
+    </row>
+    <row r="4604">
+      <c r="A4604" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4604" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4604" t="n">
+        <v>1.852</v>
+      </c>
+    </row>
+    <row r="4605">
+      <c r="A4605" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4605" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4605" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="4606">
+      <c r="A4606" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4606" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4606" t="n">
+        <v>0.452</v>
+      </c>
+    </row>
+    <row r="4607">
+      <c r="A4607" t="inlineStr">
+        <is>
+          <t>12.21.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4607" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4607" t="n">
+        <v>0.538</v>
+      </c>
+    </row>
+    <row r="4608">
+      <c r="A4608" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4608" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4608" t="n">
+        <v>0.419</v>
+      </c>
+    </row>
+    <row r="4609">
+      <c r="A4609" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4609" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4609" t="n">
+        <v>0.362</v>
+      </c>
+    </row>
+    <row r="4610">
+      <c r="A4610" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4610" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4610" t="n">
+        <v>0.83</v>
+      </c>
+    </row>
+    <row r="4611">
+      <c r="A4611" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4611" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4611" t="n">
+        <v>1.693</v>
+      </c>
+    </row>
+    <row r="4612">
+      <c r="A4612" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4612" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4612" t="n">
+        <v>0.477</v>
+      </c>
+    </row>
+    <row r="4613">
+      <c r="A4613" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4613" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4613" t="n">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="4614">
+      <c r="A4614" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4614" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4614" t="n">
+        <v>0.342</v>
+      </c>
+    </row>
+    <row r="4615">
+      <c r="A4615" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:55 (Kyiv+Israel) 13:55 (UTC) 22:55 (Japan) 19:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4615" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4615" t="n">
+        <v>0.951</v>
+      </c>
+    </row>
+    <row r="4616">
+      <c r="A4616" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4616" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4616" t="n">
+        <v>1.949</v>
+      </c>
+    </row>
+    <row r="4617">
+      <c r="A4617" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4617" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4617" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="4618">
+      <c r="A4618" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4618" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4618" t="n">
+        <v>0.578</v>
+      </c>
+    </row>
+    <row r="4619">
+      <c r="A4619" t="inlineStr">
+        <is>
+          <t>12.21.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4619" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4619" t="n">
+        <v>0.529</v>
+      </c>
+    </row>
+    <row r="4620">
+      <c r="A4620" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B4620" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4620" t="n">
+        <v>0.748</v>
+      </c>
+    </row>
+    <row r="4621">
+      <c r="A4621" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B4621" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4621" t="n">
+        <v>0.518</v>
+      </c>
+    </row>
+    <row r="4622">
+      <c r="A4622" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:40 (Kyiv+Israel) 07:40 (UTC) 16:40 (Japan) 13:10 (India)</t>
+        </is>
+      </c>
+      <c r="B4622" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4622" t="n">
+        <v>0.634</v>
+      </c>
+    </row>
+    <row r="4623">
+      <c r="A4623" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4623" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4623" t="n">
+        <v>1.584</v>
+      </c>
+    </row>
+    <row r="4624">
+      <c r="A4624" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4624" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4624" t="n">
+        <v>0.869</v>
+      </c>
+    </row>
+    <row r="4625">
+      <c r="A4625" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4625" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4625" t="n">
+        <v>1.835</v>
+      </c>
+    </row>
+    <row r="4626">
+      <c r="A4626" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4626" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4626" t="n">
+        <v>0.386</v>
+      </c>
+    </row>
+    <row r="4627">
+      <c r="A4627" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4627" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4627" t="n">
+        <v>0.999</v>
+      </c>
+    </row>
+    <row r="4628">
+      <c r="A4628" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4628" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4628" t="n">
+        <v>1.724</v>
+      </c>
+    </row>
+    <row r="4629">
+      <c r="A4629" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4629" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4629" t="n">
+        <v>0.326</v>
+      </c>
+    </row>
+    <row r="4630">
+      <c r="A4630" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4630" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4630" t="n">
+        <v>2.179</v>
+      </c>
+    </row>
+    <row r="4631">
+      <c r="A4631" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:41 (Kyiv+Israel) 07:41 (UTC) 16:41 (Japan) 13:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4631" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4631" t="n">
+        <v>0.888</v>
+      </c>
+    </row>
+    <row r="4632">
+      <c r="A4632" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4632" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4632" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="4633">
+      <c r="A4633" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4633" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4633" t="n">
+        <v>0.37</v>
+      </c>
+    </row>
+    <row r="4634">
+      <c r="A4634" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4634" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4634" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="4635">
+      <c r="A4635" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4635" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4635" t="n">
+        <v>1.693</v>
+      </c>
+    </row>
+    <row r="4636">
+      <c r="A4636" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4636" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4636" t="n">
+        <v>0.302</v>
+      </c>
+    </row>
+    <row r="4637">
+      <c r="A4637" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4637" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4637" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="4638">
+      <c r="A4638" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4638" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4638" t="n">
+        <v>0.365</v>
+      </c>
+    </row>
+    <row r="4639">
+      <c r="A4639" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4639" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4639" t="n">
+        <v>1.016</v>
+      </c>
+    </row>
+    <row r="4640">
+      <c r="A4640" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4640" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4640" t="n">
+        <v>1.701</v>
+      </c>
+    </row>
+    <row r="4641">
+      <c r="A4641" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:42 (Kyiv+Israel) 07:42 (UTC) 16:42 (Japan) 13:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4641" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4641" t="n">
+        <v>0.278</v>
+      </c>
+    </row>
+    <row r="4642">
+      <c r="A4642" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:43 (Kyiv+Israel) 07:43 (UTC) 16:43 (Japan) 13:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4642" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4642" t="n">
+        <v>0.55</v>
+      </c>
+    </row>
+    <row r="4643">
+      <c r="A4643" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:43 (Kyiv+Israel) 07:43 (UTC) 16:43 (Japan) 13:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4643" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4643" t="n">
+        <v>0.519</v>
+      </c>
+    </row>
+    <row r="4644">
+      <c r="A4644" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4644" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4644" t="n">
+        <v>0.784</v>
+      </c>
+    </row>
+    <row r="4645">
+      <c r="A4645" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4645" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4645" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="4646">
+      <c r="A4646" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4646" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4646" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="4647">
+      <c r="A4647" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4647" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4647" t="n">
+        <v>1.625</v>
+      </c>
+    </row>
+    <row r="4648">
+      <c r="A4648" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4648" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4648" t="n">
+        <v>0.304</v>
+      </c>
+    </row>
+    <row r="4649">
+      <c r="A4649" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4649" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4649" t="n">
+        <v>0.425</v>
+      </c>
+    </row>
+    <row r="4650">
+      <c r="A4650" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4650" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4650" t="n">
+        <v>0.345</v>
+      </c>
+    </row>
+    <row r="4651">
+      <c r="A4651" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4651" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4651" t="n">
+        <v>1.05</v>
+      </c>
+    </row>
+    <row r="4652">
+      <c r="A4652" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4652" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4652" t="n">
+        <v>1.692</v>
+      </c>
+    </row>
+    <row r="4653">
+      <c r="A4653" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4653" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4653" t="n">
+        <v>0.298</v>
+      </c>
+    </row>
+    <row r="4654">
+      <c r="A4654" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4654" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4654" t="n">
+        <v>0.753</v>
+      </c>
+    </row>
+    <row r="4655">
+      <c r="A4655" t="inlineStr">
+        <is>
+          <t>12.22.2022 09:56 (Kyiv+Israel) 07:56 (UTC) 16:56 (Japan) 13:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4655" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4655" t="n">
+        <v>1.066</v>
+      </c>
+    </row>
+    <row r="4656">
+      <c r="A4656" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4656" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4656" t="n">
+        <v>0.535</v>
+      </c>
+    </row>
+    <row r="4657">
+      <c r="A4657" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4657" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4657" t="n">
+        <v>0.6</v>
+      </c>
+    </row>
+    <row r="4658">
+      <c r="A4658" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4658" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4658" t="n">
+        <v>0.331</v>
+      </c>
+    </row>
+    <row r="4659">
+      <c r="A4659" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4659" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4659" t="n">
+        <v>1.682</v>
+      </c>
+    </row>
+    <row r="4660">
+      <c r="A4660" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4660" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4660" t="n">
+        <v>0.334</v>
+      </c>
+    </row>
+    <row r="4661">
+      <c r="A4661" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4661" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4661" t="n">
+        <v>0.358</v>
+      </c>
+    </row>
+    <row r="4662">
+      <c r="A4662" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4662" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4662" t="n">
+        <v>0.5629999999999999</v>
+      </c>
+    </row>
+    <row r="4663">
+      <c r="A4663" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4663" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4663" t="n">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="4664">
+      <c r="A4664" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4664" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4664" t="n">
+        <v>1.692</v>
+      </c>
+    </row>
+    <row r="4665">
+      <c r="A4665" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4665" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4665" t="n">
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="4666">
+      <c r="A4666" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4666" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4666" t="n">
+        <v>0.608</v>
+      </c>
+    </row>
+    <row r="4667">
+      <c r="A4667" t="inlineStr">
+        <is>
+          <t>12.22.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4667" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4667" t="n">
+        <v>0.58</v>
+      </c>
+    </row>
+    <row r="4668">
+      <c r="A4668" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4668" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4668" t="n">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4669">
+      <c r="A4669" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4669" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4669" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="4670">
+      <c r="A4670" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4670" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4670" t="n">
+        <v>0.366</v>
+      </c>
+    </row>
+    <row r="4671">
+      <c r="A4671" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4671" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4671" t="n">
+        <v>1.724</v>
+      </c>
+    </row>
+    <row r="4672">
+      <c r="A4672" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4672" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4672" t="n">
+        <v>0.346</v>
+      </c>
+    </row>
+    <row r="4673">
+      <c r="A4673" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4673" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4673" t="n">
+        <v>0.344</v>
+      </c>
+    </row>
+    <row r="4674">
+      <c r="A4674" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4674" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4674" t="n">
+        <v>0.598</v>
+      </c>
+    </row>
+    <row r="4675">
+      <c r="A4675" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4675" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4675" t="n">
+        <v>1.009</v>
+      </c>
+    </row>
+    <row r="4676">
+      <c r="A4676" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4676" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4676" t="n">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="4677">
+      <c r="A4677" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4677" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4677" t="n">
+        <v>0.359</v>
+      </c>
+    </row>
+    <row r="4678">
+      <c r="A4678" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4678" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4678" t="n">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="4679">
+      <c r="A4679" t="inlineStr">
+        <is>
+          <t>12.22.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4679" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4679" t="n">
+        <v>0.569</v>
+      </c>
+    </row>
+    <row r="4680">
+      <c r="A4680" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4680" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4680" t="n">
+        <v>0.661</v>
+      </c>
+    </row>
+    <row r="4681">
+      <c r="A4681" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4681" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4681" t="n">
+        <v>0.855</v>
+      </c>
+    </row>
+    <row r="4682">
+      <c r="A4682" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4682" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4682" t="n">
+        <v>0.611</v>
+      </c>
+    </row>
+    <row r="4683">
+      <c r="A4683" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:55 (Kyiv+Israel) 10:55 (UTC) 19:55 (Japan) 16:25 (India)</t>
+        </is>
+      </c>
+      <c r="B4683" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4683" t="n">
+        <v>1.859</v>
+      </c>
+    </row>
+    <row r="4684">
+      <c r="A4684" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4684" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4684" t="n">
+        <v>0.437</v>
+      </c>
+    </row>
+    <row r="4685">
+      <c r="A4685" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4685" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4685" t="n">
+        <v>0.325</v>
+      </c>
+    </row>
+    <row r="4686">
+      <c r="A4686" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4686" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4686" t="n">
+        <v>0.343</v>
+      </c>
+    </row>
+    <row r="4687">
+      <c r="A4687" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4687" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4687" t="n">
+        <v>0.979</v>
+      </c>
+    </row>
+    <row r="4688">
+      <c r="A4688" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4688" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4688" t="n">
+        <v>1.728</v>
+      </c>
+    </row>
+    <row r="4689">
+      <c r="A4689" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4689" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4689" t="n">
+        <v>0.286</v>
+      </c>
+    </row>
+    <row r="4690">
+      <c r="A4690" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4690" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4690" t="n">
+        <v>0.502</v>
+      </c>
+    </row>
+    <row r="4691">
+      <c r="A4691" t="inlineStr">
+        <is>
+          <t>12.23.2022 12:56 (Kyiv+Israel) 10:56 (UTC) 19:56 (Japan) 16:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4691" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4691" t="n">
+        <v>0.53</v>
+      </c>
+    </row>
+    <row r="4692">
+      <c r="A4692" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4692" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4692" t="n">
+        <v>0.597</v>
+      </c>
+    </row>
+    <row r="4693">
+      <c r="A4693" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4693" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4693" t="n">
+        <v>0.739</v>
+      </c>
+    </row>
+    <row r="4694">
+      <c r="A4694" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:41 (Kyiv+Israel) 11:41 (UTC) 20:41 (Japan) 17:11 (India)</t>
+        </is>
+      </c>
+      <c r="B4694" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4694" t="n">
+        <v>1.648</v>
+      </c>
+    </row>
+    <row r="4695">
+      <c r="A4695" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4695" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4695" t="n">
+        <v>1.763</v>
+      </c>
+    </row>
+    <row r="4696">
+      <c r="A4696" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4696" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4696" t="n">
+        <v>0.413</v>
+      </c>
+    </row>
+    <row r="4697">
+      <c r="A4697" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4697" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4697" t="n">
+        <v>0.455</v>
+      </c>
+    </row>
+    <row r="4698">
+      <c r="A4698" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4698" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4698" t="n">
+        <v>0.373</v>
+      </c>
+    </row>
+    <row r="4699">
+      <c r="A4699" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4699" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4699" t="n">
+        <v>1.421</v>
+      </c>
+    </row>
+    <row r="4700">
+      <c r="A4700" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4700" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4700" t="n">
+        <v>2.549</v>
+      </c>
+    </row>
+    <row r="4701">
+      <c r="A4701" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:42 (Kyiv+Israel) 11:42 (UTC) 20:42 (Japan) 17:12 (India)</t>
+        </is>
+      </c>
+      <c r="B4701" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4701" t="n">
+        <v>0.432</v>
+      </c>
+    </row>
+    <row r="4702">
+      <c r="A4702" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4702" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4702" t="n">
+        <v>0.945</v>
+      </c>
+    </row>
+    <row r="4703">
+      <c r="A4703" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4703" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4703" t="n">
+        <v>0.571</v>
+      </c>
+    </row>
+    <row r="4704">
+      <c r="A4704" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4704" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4704" t="n">
+        <v>0.417</v>
+      </c>
+    </row>
+    <row r="4705">
+      <c r="A4705" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4705" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4705" t="n">
+        <v>0.402</v>
+      </c>
+    </row>
+    <row r="4706">
+      <c r="A4706" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4706" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4706" t="n">
+        <v>0.844</v>
+      </c>
+    </row>
+    <row r="4707">
+      <c r="A4707" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4707" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4707" t="n">
+        <v>1.752</v>
+      </c>
+    </row>
+    <row r="4708">
+      <c r="A4708" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:43 (Kyiv+Israel) 11:43 (UTC) 20:43 (Japan) 17:13 (India)</t>
+        </is>
+      </c>
+      <c r="B4708" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4708" t="n">
+        <v>0.327</v>
+      </c>
+    </row>
+    <row r="4709">
+      <c r="A4709" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4709" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4709" t="n">
+        <v>0.314</v>
+      </c>
+    </row>
+    <row r="4710">
+      <c r="A4710" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4710" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4710" t="n">
+        <v>0.33</v>
+      </c>
+    </row>
+    <row r="4711">
+      <c r="A4711" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4711" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4711" t="n">
+        <v>0.995</v>
+      </c>
+    </row>
+    <row r="4712">
+      <c r="A4712" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4712" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4712" t="n">
+        <v>1.706</v>
+      </c>
+    </row>
+    <row r="4713">
+      <c r="A4713" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4713" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4713" t="n">
+        <v>0.296</v>
+      </c>
+    </row>
+    <row r="4714">
+      <c r="A4714" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4714" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4714" t="n">
+        <v>0.582</v>
+      </c>
+    </row>
+    <row r="4715">
+      <c r="A4715" t="inlineStr">
+        <is>
+          <t>12.24.2022 13:44 (Kyiv+Israel) 11:44 (UTC) 20:44 (Japan) 17:14 (India)</t>
+        </is>
+      </c>
+      <c r="B4715" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4715" t="n">
+        <v>0.655</v>
+      </c>
+    </row>
+    <row r="4716">
+      <c r="A4716" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4716" t="inlineStr">
+        <is>
+          <t>https://online.r-m.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4716" t="n">
+        <v>0.505</v>
+      </c>
+    </row>
+    <row r="4717">
+      <c r="A4717" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4717" t="inlineStr">
+        <is>
+          <t>https://system.serveandcheck.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4717" t="n">
+        <v>0.36</v>
+      </c>
+    </row>
+    <row r="4718">
+      <c r="A4718" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4718" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/gfk-ukraine/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4718" t="n">
+        <v>0.341</v>
+      </c>
+    </row>
+    <row r="4719">
+      <c r="A4719" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4719" t="inlineStr">
+        <is>
+          <t>https://tyaonline.com/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4719" t="n">
+        <v>1.714</v>
+      </c>
+    </row>
+    <row r="4720">
+      <c r="A4720" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4720" t="inlineStr">
+        <is>
+          <t>https://marketest.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4720" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4721">
+      <c r="A4721" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4721" t="inlineStr">
+        <is>
+          <t>https://ms-online.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4721" t="n">
+        <v>0.32</v>
+      </c>
+    </row>
+    <row r="4722">
+      <c r="A4722" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4722" t="inlineStr">
+        <is>
+          <t>https://www.misonline.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4722" t="n">
+        <v>0.462</v>
+      </c>
+    </row>
+    <row r="4723">
+      <c r="A4723" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4723" t="inlineStr">
+        <is>
+          <t>https://tovanot.checker.co.il/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4723" t="n">
+        <v>0.981</v>
+      </c>
+    </row>
+    <row r="4724">
+      <c r="A4724" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4724" t="inlineStr">
+        <is>
+          <t>https://csc.ajis-group.co.jp/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4724" t="n">
+        <v>1.701</v>
+      </c>
+    </row>
+    <row r="4725">
+      <c r="A4725" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4725" t="inlineStr">
+        <is>
+          <t>https://ru.checker-soft.com/profpoint-ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4725" t="n">
+        <v>0.267</v>
+      </c>
+    </row>
+    <row r="4726">
+      <c r="A4726" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:56 (Kyiv+Israel) 13:56 (UTC) 22:56 (Japan) 19:26 (India)</t>
+        </is>
+      </c>
+      <c r="B4726" t="inlineStr">
+        <is>
+          <t>https://www.imystery.ru/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4726" t="n">
+        <v>0.517</v>
+      </c>
+    </row>
+    <row r="4727">
+      <c r="A4727" t="inlineStr">
+        <is>
+          <t>12.24.2022 15:57 (Kyiv+Israel) 13:57 (UTC) 22:57 (Japan) 19:27 (India)</t>
+        </is>
+      </c>
+      <c r="B4727" t="inlineStr">
+        <is>
+          <t>https://eu.checker-soft.com/testing/c_login.php</t>
+        </is>
+      </c>
+      <c r="C4727" t="n">
+        <v>0.478</v>
       </c>
     </row>
   </sheetData>
